--- a/Nozzle-CC/Liquid Fuel Rocket Engine Equations.xlsx
+++ b/Nozzle-CC/Liquid Fuel Rocket Engine Equations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Downloads/Liquid Fueled Engine Equations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Documents/A-OneSpace/Converse-Engine/Nozzle-CC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171F9168-2867-FB49-B27F-0FDC91733400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D21B4A-D12F-6C45-BAC3-567A224A1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="660" windowWidth="25600" windowHeight="16000" xr2:uid="{58A74F8A-5DEE-8C4B-BFEA-6BA890D7EECF}"/>
+    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{58A74F8A-5DEE-8C4B-BFEA-6BA890D7EECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F7A60-B81D-764D-AFD2-4B78F887ECE4}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B7" s="12">
         <f>0.909*B8</f>
-        <v>2206.143</v>
+        <v>5547.0179699999999</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B8" s="12">
         <f>B9+460</f>
-        <v>2427</v>
+        <v>6102.33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>72</v>
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="11">
-        <v>1967</v>
+        <v>5642.33</v>
       </c>
       <c r="C9" s="11"/>
       <c r="F9" s="1" t="s">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B12" s="12">
         <f>R12</f>
-        <v>22.881992737880097</v>
+        <v>36.283301703429565</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>17</v>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="H12" s="2">
         <f>B13*B7</f>
-        <v>143399.29500000001</v>
+        <v>360556.16804999998</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
@@ -1440,21 +1440,21 @@
       </c>
       <c r="N12" s="2">
         <f>H12/K12</f>
-        <v>3711.1618788819878</v>
+        <v>9331.1637694099372</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="P12" s="2">
         <f>SQRT(N12)</f>
-        <v>60.91930629022287</v>
+        <v>96.597949095257391</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>22</v>
       </c>
       <c r="R12" s="2">
         <f>E12*P12</f>
-        <v>22.881992737880097</v>
+        <v>36.283301703429565</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1496,11 +1496,11 @@
       </c>
       <c r="B16" s="12">
         <f>SQRT(4*B12/B17)</f>
-        <v>5.3976159567175381</v>
+        <v>6.7968621100007063</v>
       </c>
       <c r="C16" s="2">
         <f>B16/2</f>
-        <v>2.6988079783587691</v>
+        <v>3.3984310550003531</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>79</v>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="B18" s="12">
         <f>3.65*B12</f>
-        <v>83.519273493262347</v>
+        <v>132.43405121751792</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>80</v>
@@ -1535,11 +1535,11 @@
       </c>
       <c r="B19" s="12">
         <f>SQRT(4*B18/B17)</f>
-        <v>10.312130805957274</v>
+        <v>12.985386828262987</v>
       </c>
       <c r="C19" s="2">
         <f>B19/2</f>
-        <v>5.156065402978637</v>
+        <v>6.4926934141314936</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>81</v>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="B22" s="12">
         <f>B23+B24</f>
-        <v>26.78527144002048</v>
+        <v>33.728927366568918</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>83</v>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B23" s="12">
         <f>(C16*SIN(D21))/SIN(E21)</f>
-        <v>10.072088495107176</v>
+        <v>12.683117363281221</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>84</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B24" s="12">
         <f>(C19*SIN(C20))/SIN(B20)</f>
-        <v>16.713182944913303</v>
+        <v>21.045810003287695</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>85</v>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B26" s="12">
         <f>B25*B12</f>
-        <v>1372.9195642728059</v>
+        <v>2176.9981022057741</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>87</v>
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B27" s="12">
         <f>5*B16</f>
-        <v>26.98807978358769</v>
+        <v>33.984310550003528</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>88</v>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B28" s="12">
         <f>4*B12</f>
-        <v>91.527970951520388</v>
+        <v>145.13320681371826</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>89</v>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B29" s="12">
         <f>B26/1.1*B28</f>
-        <v>114236.85636139581</v>
+        <v>287231.55981863884</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>90</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="B30" s="12">
         <f>25.4*B16</f>
-        <v>137.09944530062546</v>
+        <v>172.64029759401794</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>91</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B31" s="12">
         <f>25.4*B29</f>
-        <v>2901616.1515794536</v>
+        <v>7295681.619393426</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>92</v>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B32" s="12">
         <f>25.4*B27</f>
-        <v>685.49722650312731</v>
+        <v>863.2014879700896</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>92</v>
@@ -1741,7 +1741,7 @@
       </c>
       <c r="B1" s="6">
         <f>Design!B30</f>
-        <v>137.09944530062546</v>
+        <v>172.64029759401794</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>45</v>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B2" s="7">
         <f>Design!B19*25.4</f>
-        <v>261.92812247131474</v>
+        <v>329.82882543787986</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>45</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B3" s="6">
         <f>Design!B32</f>
-        <v>685.49722650312731</v>
+        <v>863.2014879700896</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>45</v>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B4" s="7">
         <f>Design!B31</f>
-        <v>2901616.1515794536</v>
+        <v>7295681.619393426</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>45</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B5" s="6">
         <f>Design!B24*25.4</f>
-        <v>424.5148468007979</v>
+        <v>534.56357408350743</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>45</v>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B6" s="7">
         <f>Design!B23*25.4</f>
-        <v>255.83104777572225</v>
+        <v>322.151181027343</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>45</v>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B7" s="6">
         <f>Design!B22*25.4</f>
-        <v>680.34589457652021</v>
+        <v>856.71475511085043</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>45</v>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B1" s="14">
         <f>B4*B3*(B2^2)</f>
-        <v>65349172.941705152</v>
+        <v>260542733.59200537</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>59</v>
@@ -1889,7 +1889,7 @@
       </c>
       <c r="B2" s="14">
         <f>Design!B27/2</f>
-        <v>13.494039891793845</v>
+        <v>16.992155275001764</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>60</v>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B3" s="14">
         <f>Design!B29</f>
-        <v>114236.85636139581</v>
+        <v>287231.55981863884</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>60</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="B6" s="14">
         <f>B8*B4*(B7^2)</f>
-        <v>65349172.941705152</v>
+        <v>260542733.59200537</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>59</v>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B8" s="14">
         <f>B1/(B4*(B7)^2)</f>
-        <v>9245016.800538417</v>
+        <v>36859256.833517991</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>60</v>

--- a/Nozzle-CC/Liquid Fuel Rocket Engine Equations.xlsx
+++ b/Nozzle-CC/Liquid Fuel Rocket Engine Equations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Documents/A-OneSpace/Converse-Engine/Nozzle-CC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D21B4A-D12F-6C45-BAC3-567A224A1081}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB613860-E2EA-EC42-A215-794F477F2B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="0" windowWidth="14200" windowHeight="18000" xr2:uid="{58A74F8A-5DEE-8C4B-BFEA-6BA890D7EECF}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{58A74F8A-5DEE-8C4B-BFEA-6BA890D7EECF}"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -1258,15 +1258,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F7A60-B81D-764D-AFD2-4B78F887ECE4}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="41.83203125" style="1" customWidth="1"/>

--- a/Nozzle-CC/Liquid Fuel Rocket Engine Equations.xlsx
+++ b/Nozzle-CC/Liquid Fuel Rocket Engine Equations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nyameaama/Documents/A-OneSpace/Converse-Engine/Nozzle-CC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB613860-E2EA-EC42-A215-794F477F2B3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38435F6-40C3-B641-A472-74D7ADFDCF3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{58A74F8A-5DEE-8C4B-BFEA-6BA890D7EECF}"/>
   </bookViews>
@@ -1258,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A92F7A60-B81D-764D-AFD2-4B78F887ECE4}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
